--- a/SchedulingData/dynamic12/pso/scheduling1_8.xlsx
+++ b/SchedulingData/dynamic12/pso/scheduling1_8.xlsx
@@ -462,135 +462,135 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>57.22</v>
+        <v>42.36</v>
       </c>
       <c r="E2" t="n">
-        <v>27.448</v>
+        <v>26.464</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>42.36</v>
+        <v>72.06</v>
       </c>
       <c r="E3" t="n">
-        <v>26.464</v>
+        <v>25.464</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>42.36</v>
       </c>
       <c r="D4" t="n">
-        <v>72.06</v>
+        <v>87.26000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>25.464</v>
+        <v>24.104</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>72.06</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>126.26</v>
+        <v>49.12</v>
       </c>
       <c r="E5" t="n">
-        <v>23.144</v>
+        <v>25.788</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>49.12</v>
       </c>
       <c r="D6" t="n">
-        <v>65.7</v>
+        <v>119</v>
       </c>
       <c r="E6" t="n">
-        <v>26.1</v>
+        <v>22.38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>65.7</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>109.76</v>
+        <v>76.52</v>
       </c>
       <c r="E7" t="n">
-        <v>22.824</v>
+        <v>26.528</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>126.26</v>
+        <v>119</v>
       </c>
       <c r="D8" t="n">
-        <v>168.06</v>
+        <v>174.62</v>
       </c>
       <c r="E8" t="n">
-        <v>19.604</v>
+        <v>18.948</v>
       </c>
     </row>
     <row r="9">
@@ -599,36 +599,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>168.06</v>
+        <v>72.06</v>
       </c>
       <c r="D9" t="n">
-        <v>213.9</v>
+        <v>103.98</v>
       </c>
       <c r="E9" t="n">
-        <v>16.64</v>
+        <v>22.912</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>76.52</v>
+        <v>60.28</v>
       </c>
       <c r="E10" t="n">
-        <v>26.528</v>
+        <v>26.152</v>
       </c>
     </row>
     <row r="11">
@@ -637,93 +637,93 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>213.9</v>
+        <v>103.98</v>
       </c>
       <c r="D11" t="n">
-        <v>281.1</v>
+        <v>146.58</v>
       </c>
       <c r="E11" t="n">
-        <v>13.56</v>
+        <v>20.272</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>76.52</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>119.22</v>
+        <v>79.88</v>
       </c>
       <c r="E12" t="n">
-        <v>23.888</v>
+        <v>26.152</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>60.28</v>
       </c>
       <c r="D13" t="n">
-        <v>50.5</v>
+        <v>112.62</v>
       </c>
       <c r="E13" t="n">
-        <v>26.64</v>
+        <v>23.028</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>50.5</v>
+        <v>79.88</v>
       </c>
       <c r="D14" t="n">
-        <v>135.62</v>
+        <v>114.38</v>
       </c>
       <c r="E14" t="n">
-        <v>23.208</v>
+        <v>23.832</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>57.22</v>
+        <v>87.26000000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>107</v>
+        <v>154.06</v>
       </c>
       <c r="E15" t="n">
-        <v>23.6</v>
+        <v>20.024</v>
       </c>
     </row>
     <row r="16">
@@ -732,36 +732,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>109.76</v>
+        <v>114.38</v>
       </c>
       <c r="D16" t="n">
-        <v>156.92</v>
+        <v>181.38</v>
       </c>
       <c r="E16" t="n">
-        <v>20.228</v>
+        <v>20.752</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>156.92</v>
+        <v>154.06</v>
       </c>
       <c r="D17" t="n">
-        <v>201.02</v>
+        <v>197.28</v>
       </c>
       <c r="E17" t="n">
-        <v>17.948</v>
+        <v>16.832</v>
       </c>
     </row>
     <row r="18">
@@ -774,67 +774,67 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>281.1</v>
+        <v>146.58</v>
       </c>
       <c r="D18" t="n">
-        <v>360.76</v>
+        <v>186.64</v>
       </c>
       <c r="E18" t="n">
-        <v>11.184</v>
+        <v>17.896</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>42.36</v>
+        <v>76.52</v>
       </c>
       <c r="D19" t="n">
-        <v>95.36</v>
+        <v>130.16</v>
       </c>
       <c r="E19" t="n">
-        <v>22.304</v>
+        <v>22.784</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>201.02</v>
+        <v>186.64</v>
       </c>
       <c r="D20" t="n">
-        <v>239.2</v>
+        <v>251.54</v>
       </c>
       <c r="E20" t="n">
-        <v>15.26</v>
+        <v>14.536</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>135.62</v>
+        <v>112.62</v>
       </c>
       <c r="D21" t="n">
-        <v>181.46</v>
+        <v>161.86</v>
       </c>
       <c r="E21" t="n">
         <v>20.244</v>
@@ -842,21 +842,21 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>239.2</v>
+        <v>161.86</v>
       </c>
       <c r="D22" t="n">
-        <v>277.52</v>
+        <v>197.9</v>
       </c>
       <c r="E22" t="n">
-        <v>12.068</v>
+        <v>17.28</v>
       </c>
     </row>
     <row r="23">
@@ -865,55 +865,55 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>95.36</v>
+        <v>197.28</v>
       </c>
       <c r="D23" t="n">
-        <v>174.64</v>
+        <v>264.88</v>
       </c>
       <c r="E23" t="n">
-        <v>18.456</v>
+        <v>12.672</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>181.46</v>
+        <v>264.88</v>
       </c>
       <c r="D24" t="n">
-        <v>221.08</v>
+        <v>331.14</v>
       </c>
       <c r="E24" t="n">
-        <v>17.912</v>
+        <v>9.656000000000001</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>277.52</v>
+        <v>251.54</v>
       </c>
       <c r="D25" t="n">
-        <v>342.22</v>
+        <v>319.04</v>
       </c>
       <c r="E25" t="n">
-        <v>8.708</v>
+        <v>9.916</v>
       </c>
     </row>
     <row r="26">
@@ -922,188 +922,188 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>119.22</v>
+        <v>130.16</v>
       </c>
       <c r="D26" t="n">
-        <v>166.26</v>
+        <v>169.26</v>
       </c>
       <c r="E26" t="n">
-        <v>20.324</v>
+        <v>20.504</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>221.08</v>
+        <v>181.38</v>
       </c>
       <c r="D27" t="n">
-        <v>266.56</v>
+        <v>268.02</v>
       </c>
       <c r="E27" t="n">
-        <v>14.504</v>
+        <v>17.188</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>266.56</v>
+        <v>197.9</v>
       </c>
       <c r="D28" t="n">
-        <v>309.1</v>
+        <v>267.42</v>
       </c>
       <c r="E28" t="n">
-        <v>11.38</v>
+        <v>14.448</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>174.64</v>
+        <v>268.02</v>
       </c>
       <c r="D29" t="n">
-        <v>213.78</v>
+        <v>315.08</v>
       </c>
       <c r="E29" t="n">
-        <v>15.672</v>
+        <v>14.592</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>107</v>
+        <v>169.26</v>
       </c>
       <c r="D30" t="n">
-        <v>169.4</v>
+        <v>224.46</v>
       </c>
       <c r="E30" t="n">
-        <v>18.98</v>
+        <v>16.604</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>169.4</v>
+        <v>319.04</v>
       </c>
       <c r="D31" t="n">
-        <v>220</v>
+        <v>378.94</v>
       </c>
       <c r="E31" t="n">
-        <v>15.56</v>
+        <v>6.556</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>342.22</v>
+        <v>267.42</v>
       </c>
       <c r="D32" t="n">
-        <v>372.22</v>
+        <v>367.32</v>
       </c>
       <c r="E32" t="n">
-        <v>6.348</v>
+        <v>11.028</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>372.22</v>
+        <v>174.62</v>
       </c>
       <c r="D33" t="n">
-        <v>455.22</v>
+        <v>221.42</v>
       </c>
       <c r="E33" t="n">
-        <v>3.628</v>
+        <v>15.408</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>213.78</v>
+        <v>221.42</v>
       </c>
       <c r="D34" t="n">
-        <v>270.98</v>
+        <v>286.32</v>
       </c>
       <c r="E34" t="n">
-        <v>11.592</v>
+        <v>12.528</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>270.98</v>
+        <v>286.32</v>
       </c>
       <c r="D35" t="n">
-        <v>349</v>
+        <v>336.02</v>
       </c>
       <c r="E35" t="n">
-        <v>7.38</v>
+        <v>9.667999999999999</v>
       </c>
     </row>
     <row r="36">
@@ -1112,55 +1112,55 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>166.26</v>
+        <v>224.46</v>
       </c>
       <c r="D36" t="n">
-        <v>250.38</v>
+        <v>268.52</v>
       </c>
       <c r="E36" t="n">
-        <v>17.492</v>
+        <v>13.328</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>349</v>
+        <v>315.08</v>
       </c>
       <c r="D37" t="n">
-        <v>415.04</v>
+        <v>363.38</v>
       </c>
       <c r="E37" t="n">
-        <v>4.356</v>
+        <v>11.872</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>360.76</v>
+        <v>268.52</v>
       </c>
       <c r="D38" t="n">
-        <v>424.2</v>
+        <v>319.26</v>
       </c>
       <c r="E38" t="n">
-        <v>7.44</v>
+        <v>10.364</v>
       </c>
     </row>
     <row r="39">
@@ -1169,55 +1169,55 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>309.1</v>
+        <v>336.02</v>
       </c>
       <c r="D39" t="n">
-        <v>349.2</v>
+        <v>370.64</v>
       </c>
       <c r="E39" t="n">
-        <v>8.5</v>
+        <v>7.336</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>250.38</v>
+        <v>363.38</v>
       </c>
       <c r="D40" t="n">
-        <v>285.38</v>
+        <v>416.36</v>
       </c>
       <c r="E40" t="n">
-        <v>14.632</v>
+        <v>9.183999999999999</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>349.2</v>
+        <v>331.14</v>
       </c>
       <c r="D41" t="n">
-        <v>410.66</v>
+        <v>412.48</v>
       </c>
       <c r="E41" t="n">
-        <v>5.484</v>
+        <v>6.632</v>
       </c>
     </row>
   </sheetData>
